--- a/Data/EUDA/Cannabis_detaille/sdf_global.xlsx
+++ b/Data/EUDA/Cannabis_detaille/sdf_global.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,37 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>Stable accommodation.global</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Stable accommodation</t>
+          <t>Unstable accommodation and/or homeless.global</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unstable accommodation and/or homeless</t>
+          <t>In detention.global</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>In detention</t>
+          <t>Other.global</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Not known / missing.global</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
+          <t>Total.global</t>
         </is>
       </c>
     </row>
@@ -482,24 +477,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>1036</v>
       </c>
       <c r="C2" t="n">
-        <v>1036</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
-      </c>
-      <c r="H2" t="n">
         <v>1124</v>
       </c>
     </row>
@@ -510,24 +502,21 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>2949</v>
       </c>
       <c r="C3" t="n">
-        <v>2949</v>
+        <v>193</v>
       </c>
       <c r="D3" t="n">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="E3" t="n">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="F3" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
-      </c>
-      <c r="H3" t="n">
         <v>3501</v>
       </c>
     </row>
@@ -538,24 +527,21 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>96</v>
       </c>
       <c r="C4" t="n">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" t="n">
         <v>109</v>
       </c>
     </row>
@@ -566,22 +552,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>374</v>
       </c>
       <c r="C5" t="n">
-        <v>374</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>62</v>
-      </c>
-      <c r="E5" t="n">
         <v>18</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
       <c r="G5" t="n">
-        <v>24</v>
-      </c>
-      <c r="H5" t="n">
         <v>478</v>
       </c>
     </row>
@@ -592,22 +575,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>271</v>
       </c>
       <c r="C6" t="n">
-        <v>271</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
-      </c>
-      <c r="E6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>7</v>
+      </c>
       <c r="G6" t="n">
-        <v>7</v>
-      </c>
-      <c r="H6" t="n">
         <v>340</v>
       </c>
     </row>
@@ -618,24 +598,21 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>691</v>
       </c>
       <c r="C7" t="n">
-        <v>691</v>
+        <v>129</v>
       </c>
       <c r="D7" t="n">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="F7" t="n">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
-        <v>75</v>
-      </c>
-      <c r="H7" t="n">
         <v>1072</v>
       </c>
     </row>
@@ -646,24 +623,21 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>2783</v>
       </c>
       <c r="C8" t="n">
-        <v>2783</v>
+        <v>96</v>
       </c>
       <c r="D8" t="n">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="E8" t="n">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="F8" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G8" t="n">
-        <v>37</v>
-      </c>
-      <c r="H8" t="n">
         <v>3085</v>
       </c>
     </row>
@@ -674,20 +648,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2022</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
-      </c>
-      <c r="D9" t="n">
         <v>5</v>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
         <v>26</v>
       </c>
     </row>
@@ -698,24 +669,21 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>56</v>
       </c>
       <c r="C10" t="n">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="n">
         <v>62</v>
       </c>
     </row>
@@ -726,24 +694,21 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2021</v>
+        <v>15098</v>
       </c>
       <c r="C11" t="n">
-        <v>15098</v>
+        <v>2713</v>
       </c>
       <c r="D11" t="n">
-        <v>2713</v>
+        <v>135</v>
       </c>
       <c r="E11" t="n">
-        <v>135</v>
+        <v>413</v>
       </c>
       <c r="F11" t="n">
-        <v>413</v>
+        <v>1399</v>
       </c>
       <c r="G11" t="n">
-        <v>1399</v>
-      </c>
-      <c r="H11" t="n">
         <v>19758</v>
       </c>
     </row>
@@ -754,24 +719,21 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2022</v>
+        <v>12930</v>
       </c>
       <c r="C12" t="n">
-        <v>12930</v>
+        <v>6748</v>
       </c>
       <c r="D12" t="n">
-        <v>6748</v>
+        <v>1102</v>
       </c>
       <c r="E12" t="n">
-        <v>1102</v>
+        <v>629</v>
       </c>
       <c r="F12" t="n">
-        <v>629</v>
+        <v>1819</v>
       </c>
       <c r="G12" t="n">
-        <v>1819</v>
-      </c>
-      <c r="H12" t="n">
         <v>23228</v>
       </c>
     </row>
@@ -782,24 +744,21 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>863</v>
       </c>
       <c r="C13" t="n">
-        <v>863</v>
+        <v>118</v>
       </c>
       <c r="D13" t="n">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" t="n">
         <v>989</v>
       </c>
     </row>
@@ -810,24 +769,21 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>2550</v>
       </c>
       <c r="C14" t="n">
-        <v>2550</v>
+        <v>41</v>
       </c>
       <c r="D14" t="n">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>76</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>76</v>
-      </c>
-      <c r="H14" t="n">
         <v>2743</v>
       </c>
     </row>
@@ -838,24 +794,21 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>1846</v>
       </c>
       <c r="C15" t="n">
-        <v>1846</v>
+        <v>180</v>
       </c>
       <c r="D15" t="n">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="E15" t="n">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="F15" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>9</v>
-      </c>
-      <c r="H15" t="n">
         <v>2184</v>
       </c>
     </row>
@@ -866,24 +819,21 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>4467</v>
       </c>
       <c r="C16" t="n">
-        <v>4467</v>
+        <v>107</v>
       </c>
       <c r="D16" t="n">
-        <v>107</v>
+        <v>351</v>
       </c>
       <c r="E16" t="n">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="F16" t="n">
-        <v>304</v>
+        <v>2287</v>
       </c>
       <c r="G16" t="n">
-        <v>2287</v>
-      </c>
-      <c r="H16" t="n">
         <v>7516</v>
       </c>
     </row>
@@ -894,24 +844,21 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>160</v>
       </c>
       <c r="C17" t="n">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="G17" t="n">
-        <v>76</v>
-      </c>
-      <c r="H17" t="n">
         <v>241</v>
       </c>
     </row>
@@ -922,18 +869,15 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2022</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
-      </c>
-      <c r="D18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="G18" t="n">
         <v>25</v>
       </c>
     </row>
@@ -944,22 +888,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>81</v>
       </c>
       <c r="C19" t="n">
-        <v>81</v>
-      </c>
-      <c r="D19" t="n">
         <v>20</v>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
         <v>108</v>
       </c>
     </row>
@@ -970,24 +911,21 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>200</v>
       </c>
       <c r="C20" t="n">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="n">
         <v>13</v>
       </c>
-      <c r="E20" t="n">
-        <v>6</v>
-      </c>
       <c r="F20" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
         <v>233</v>
       </c>
     </row>
@@ -998,24 +936,21 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>2998</v>
       </c>
       <c r="C21" t="n">
-        <v>2998</v>
+        <v>65</v>
       </c>
       <c r="D21" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>410</v>
       </c>
       <c r="F21" t="n">
-        <v>410</v>
+        <v>1717</v>
       </c>
       <c r="G21" t="n">
-        <v>1717</v>
-      </c>
-      <c r="H21" t="n">
         <v>5202</v>
       </c>
     </row>
@@ -1031,7 +966,6 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1040,22 +974,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>1029</v>
       </c>
       <c r="C23" t="n">
-        <v>1029</v>
-      </c>
-      <c r="D23" t="n">
         <v>101</v>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>24</v>
+      </c>
       <c r="F23" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>11</v>
-      </c>
-      <c r="H23" t="n">
         <v>1165</v>
       </c>
     </row>
@@ -1066,24 +997,21 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>1063</v>
       </c>
       <c r="C24" t="n">
-        <v>1063</v>
+        <v>75</v>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E24" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="G24" t="n">
-        <v>72</v>
-      </c>
-      <c r="H24" t="n">
         <v>1238</v>
       </c>
     </row>
@@ -1094,24 +1022,21 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>1766</v>
       </c>
       <c r="C25" t="n">
-        <v>1766</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="E25" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="G25" t="n">
-        <v>21</v>
-      </c>
-      <c r="H25" t="n">
         <v>1976</v>
       </c>
     </row>
@@ -1122,22 +1047,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>434</v>
       </c>
       <c r="C26" t="n">
-        <v>434</v>
-      </c>
-      <c r="D26" t="n">
         <v>60</v>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
       <c r="F26" t="n">
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>10</v>
-      </c>
-      <c r="H26" t="n">
         <v>514</v>
       </c>
     </row>
@@ -1148,10 +1070,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1163,9 +1085,6 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1176,24 +1095,21 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>10794</v>
       </c>
       <c r="C28" t="n">
-        <v>10794</v>
+        <v>247</v>
       </c>
       <c r="D28" t="n">
-        <v>247</v>
+        <v>433</v>
       </c>
       <c r="E28" t="n">
-        <v>433</v>
+        <v>607</v>
       </c>
       <c r="F28" t="n">
-        <v>607</v>
+        <v>269</v>
       </c>
       <c r="G28" t="n">
-        <v>269</v>
-      </c>
-      <c r="H28" t="n">
         <v>12350</v>
       </c>
     </row>
@@ -1204,24 +1120,21 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2022</v>
+        <v>26</v>
       </c>
       <c r="C29" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" t="n">
         <v>0</v>
       </c>
-      <c r="F29" t="n">
-        <v>9</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
         <v>43</v>
       </c>
     </row>
@@ -1232,22 +1145,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>898</v>
       </c>
       <c r="C30" t="n">
-        <v>898</v>
+        <v>36</v>
       </c>
       <c r="D30" t="n">
-        <v>36</v>
-      </c>
-      <c r="E30" t="n">
         <v>12</v>
       </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
       <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
         <v>946</v>
       </c>
     </row>
@@ -1259,7 +1169,6 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1273,7 +1182,6 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1287,7 +1195,6 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1301,7 +1208,6 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1315,7 +1221,6 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1329,7 +1234,6 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1343,7 +1247,6 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1357,7 +1260,6 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1371,7 +1273,6 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
